--- a/workspace-ins/docs/URL 정의서.xlsx
+++ b/workspace-ins/docs/URL 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frontend-dev\frontend-skeleton\workspace-ins\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8498986C-13BE-42D2-91C2-CDDF442E91CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D01CAE7-8011-411B-AA04-E8B6F8B1236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47550" yWindow="150" windowWidth="10140" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/users/signup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/users/signin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,11 +159,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/users:id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>patch</t>
+    <t>/api/users/:id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/users</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -902,7 +898,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.4">
@@ -915,7 +911,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.4">
@@ -928,7 +924,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -940,10 +936,10 @@
         <v>21</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/workspace-ins/docs/URL 정의서.xlsx
+++ b/workspace-ins/docs/URL 정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frontend-dev\frontend-skeleton\workspace-ins\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D01CAE7-8011-411B-AA04-E8B6F8B1236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5215C41B-1FF9-424F-8CF0-E77E1396CA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47550" yWindow="150" windowWidth="10140" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,14 @@
   </si>
   <si>
     <t>/api/users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 상세 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/boards/comments/:id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,6 +459,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -466,10 +478,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -750,9 +758,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:G15"/>
+  <dimension ref="C3:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -765,27 +773,27 @@
   <sheetData>
     <row r="3" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -799,8 +807,8 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C6" s="11"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
@@ -812,7 +820,7 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C7" s="11"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
@@ -827,7 +835,7 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C8" s="11"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -842,7 +850,7 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C9" s="11"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
@@ -857,8 +865,8 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C10" s="11"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -872,85 +880,99 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C11" s="11"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C12" s="15"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C12" s="11" t="s">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C13" s="11"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C14" s="15"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C14" s="11"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="1" t="s">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C15" s="15"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="12"/>
-      <c r="D15" s="8" t="s">
+    <row r="16" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="16"/>
+      <c r="D16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C5:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>